--- a/input_data.xlsx
+++ b/input_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\legra\Python-Exercises\FinalProject-GroupCLL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\legra\Python-Exercises\FinalProject_GroupCLL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C246B88A-D777-4909-8959-DBC76CC69FF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79D65C1F-8B97-4F8E-B9BA-494BEEC6656E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{8A910EA0-9E5A-4739-A9DB-7676AABA6099}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{8A910EA0-9E5A-4739-A9DB-7676AABA6099}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,9 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
   <si>
-    <t>Data from WWTP Sindelfingen</t>
-  </si>
-  <si>
     <t>Unit</t>
   </si>
   <si>
@@ -96,6 +93,9 @@
   </si>
   <si>
     <t>Q DW,aM</t>
+  </si>
+  <si>
+    <t>Input Data</t>
   </si>
 </sst>
 </file>
@@ -506,7 +506,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -518,7 +518,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="7" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -526,144 +526,144 @@
     <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="4">
         <v>150000</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="4">
         <v>40441</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="4">
         <f>B7+B8</f>
         <v>290</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="4">
         <v>352</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="4">
         <v>238</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="4">
         <v>52</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" s="4">
         <f>109576</f>
         <v>109576</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="4">
         <v>5658</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="4">
         <v>1604</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="4">
         <v>86</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="4">
         <v>235</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="4">
         <v>12</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
